--- a/config_7.6/fish_3d_yutu_random_2.xlsx
+++ b/config_7.6/fish_3d_yutu_random_2.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -343,9 +343,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,23 +377,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,7 +409,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,28 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -433,15 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,13 +457,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,7 +471,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,13 +506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,37 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,25 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,43 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,26 +711,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,9 +747,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,15 +794,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,154 +815,154 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -977,10 +977,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="8">
-        <v>1623167999</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1623254399</v>
+      <c r="I22" s="7">
+        <v>1625529600</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1626105599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2173,10 +2173,10 @@
       <c r="F23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2199,10 +2199,10 @@
       <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2225,10 +2225,10 @@
       <c r="F25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2251,10 +2251,10 @@
       <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2277,10 +2277,10 @@
       <c r="F27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2303,10 +2303,10 @@
       <c r="F28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2355,10 +2355,10 @@
       <c r="F30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
       <c r="F31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2407,10 +2407,10 @@
       <c r="F32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="7">
-        <v>1625529600</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1626105599</v>
+      <c r="I33" s="9">
+        <v>1623167999</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>
